--- a/biology/Botanique/Coccolithophorales/Coccolithophorales.xlsx
+++ b/biology/Botanique/Coccolithophorales/Coccolithophorales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Coccosphaerales ou Coccolithophorales (du grec κοκκος «pépin», λίθος «pierre», φορος «porter» ) sont un ordre d'algues unicellulaires microscopiques appartenant à la classe des Prymnesiophyceae au sein du groupe des Haptophytes. L'accumulation de leur squelette fossilisé est le composant majoritaire de la craie. Elles font partie des Coccolithophoridés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des organismes exclusivement marins, que l'on rencontre en milieu pélagique. 
 Ces algues protègent leur unique cellule sous une couche de plaques de calcite généralement discoïdes appelées coccolithes. 
@@ -545,19 +559,21 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (17 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (17 août 2015) :
 famille des Halopappaceae Kamptner, 1928
-Selon ITIS      (17 août 2015)[3] :
+Selon ITIS      (17 août 2015) :
 famille des Coccolithaceae Poche, 1913
-Selon World Register of Marine Species                               (17 août 2015)[4] :
+Selon World Register of Marine Species                               (17 août 2015) :
 famille des Braarudosphaeraceae Deflandre, 1947
 famille des Calyptrosphaeraceae Boudreaux &amp; Hay, 1969
 famille des Deflandriaceae Black, 1968
 famille des Halopappaceae Kamptner, 1928
 Coccosphaerales incertae sedis
-Selon NCBI  (1 janvier 2015)[5] :
+Selon NCBI  (1 janvier 2015) :
 famille des Calyptrosphaeraceae</t>
         </is>
       </c>
